--- a/output.xlsx
+++ b/output.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="04" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="02" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="03" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="02" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="03" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="04" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03/02/2024 02:51:31</t>
+          <t>03/02/2024 02:51:35</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -458,19 +458,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 48,00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 43,80</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03/02/2024 02:51:39</t>
+          <t>03/02/2024 02:51:41</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -480,19 +480,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 52,258</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03/02/2024 02:51:49</t>
+          <t>03/02/2024 02:51:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -502,19 +502,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 48,00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,70</t>
+          <t xml:space="preserve"> 43,70</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03/02/2024 02:51:59</t>
+          <t>03/02/2024 02:51:55</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -524,19 +524,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,50</t>
+          <t xml:space="preserve"> 47,80</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 43,60</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03/02/2024 02:52:01</t>
+          <t>03/02/2024 02:52:05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -546,19 +546,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 47,70</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 43,60</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03/02/2024 02:52:09</t>
+          <t>03/02/2024 02:52:11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -568,19 +568,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,70</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>03/02/2024 02:52:19</t>
+          <t>03/02/2024 02:52:15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -590,19 +590,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 47,70</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,70</t>
+          <t xml:space="preserve"> 43,40</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03/02/2024 02:52:29</t>
+          <t>03/02/2024 02:52:25</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -612,19 +612,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 47,60</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,70</t>
+          <t xml:space="preserve"> 43,30</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03/02/2024 02:52:31</t>
+          <t>03/02/2024 02:52:35</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -634,19 +634,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 47,60</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 43,20</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03/02/2024 02:52:39</t>
+          <t>03/02/2024 02:52:41</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -656,19 +656,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,70</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03/02/2024 02:52:49</t>
+          <t>03/02/2024 02:52:45</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -678,19 +678,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 47,50</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,70</t>
+          <t xml:space="preserve"> 43,10</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03/02/2024 02:52:59</t>
+          <t>03/02/2024 02:52:55</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -700,19 +700,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 47,50</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,70</t>
+          <t xml:space="preserve"> 42,90</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03/02/2024 02:53:01</t>
+          <t>03/02/2024 02:53:05</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -722,19 +722,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 47,30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 42,90</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03/02/2024 02:53:09</t>
+          <t>03/02/2024 02:53:11</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -744,19 +744,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,70</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>03/02/2024 02:53:19</t>
+          <t>03/02/2024 02:53:15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -766,19 +766,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 47,20</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,70</t>
+          <t xml:space="preserve"> 42,80</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>03/02/2024 02:53:29</t>
+          <t>03/02/2024 02:53:25</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -788,19 +788,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 47,10</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,70</t>
+          <t xml:space="preserve"> 42,80</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>03/02/2024 02:53:31</t>
+          <t>03/02/2024 02:53:35</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -810,19 +810,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 47,10</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 42,70</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>03/02/2024 02:53:39</t>
+          <t>03/02/2024 02:53:41</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -832,19 +832,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,70</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>03/02/2024 02:53:49</t>
+          <t>03/02/2024 02:53:45</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -854,19 +854,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 47,00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 42,70</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>03/02/2024 02:53:59</t>
+          <t>03/02/2024 02:53:55</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -876,19 +876,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 47,00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 42,40</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>03/02/2024 02:54:01</t>
+          <t>03/02/2024 02:54:05</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -898,19 +898,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,258</t>
+          <t xml:space="preserve"> 46,80</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 42,40</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03/02/2024 02:54:09</t>
+          <t>03/02/2024 02:54:11</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -920,19 +920,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>03/02/2024 02:54:19</t>
+          <t>03/02/2024 02:54:15</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -942,19 +942,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 46,70</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 42,30</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>03/02/2024 02:54:29</t>
+          <t>03/02/2024 02:54:25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -964,19 +964,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 46,70</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 42,30</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>03/02/2024 02:54:31</t>
+          <t>03/02/2024 02:54:35</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -986,19 +986,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 46,60</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 42,20</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>03/02/2024 02:54:39</t>
+          <t>03/02/2024 02:54:41</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1008,19 +1008,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,70</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>03/02/2024 02:54:49</t>
+          <t>03/02/2024 02:54:45</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1030,19 +1030,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 46,60</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 42,20</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>03/02/2024 02:54:59</t>
+          <t>03/02/2024 02:54:55</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1052,19 +1052,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 46,50</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 42,20</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>03/02/2024 02:55:01</t>
+          <t>03/02/2024 02:55:05</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1074,19 +1074,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 46,50</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 42,10</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>03/02/2024 02:55:09</t>
+          <t>03/02/2024 02:55:11</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1096,19 +1096,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>03/02/2024 02:55:19</t>
+          <t>03/02/2024 02:55:15</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1118,19 +1118,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 46,30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 41,90</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>03/02/2024 02:55:29</t>
+          <t>03/02/2024 02:55:25</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1140,19 +1140,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 46,30</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 41,80</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>03/02/2024 02:55:31</t>
+          <t>03/02/2024 02:55:35</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1162,19 +1162,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 46,20</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 41,80</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>03/02/2024 02:55:39</t>
+          <t>03/02/2024 02:55:41</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1184,19 +1184,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>03/02/2024 02:55:49</t>
+          <t>03/02/2024 02:55:45</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 46,20</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 41,70</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>03/02/2024 02:55:59</t>
+          <t>03/02/2024 02:55:55</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1228,19 +1228,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 46,10</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 41,50</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>03/02/2024 02:56:01</t>
+          <t>03/02/2024 02:56:05</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1250,19 +1250,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,258</t>
+          <t xml:space="preserve"> 46,10</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 41,50</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>03/02/2024 02:56:09</t>
+          <t>03/02/2024 02:56:11</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1272,19 +1272,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>03/02/2024 02:56:19</t>
+          <t>03/02/2024 02:56:15</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1294,19 +1294,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 46,10</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 41,40</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>03/02/2024 02:56:29</t>
+          <t>03/02/2024 02:56:25</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1316,19 +1316,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 45,80</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 41,40</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>03/02/2024 02:56:31</t>
+          <t>03/02/2024 02:56:35</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1338,19 +1338,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 45,80</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 41,40</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>03/02/2024 02:56:39</t>
+          <t>03/02/2024 02:56:41</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1360,19 +1360,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>03/02/2024 02:56:49</t>
+          <t>03/02/2024 02:56:45</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1382,19 +1382,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 45,70</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 41,20</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>03/02/2024 02:56:59</t>
+          <t>03/02/2024 02:56:55</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1404,19 +1404,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 45,70</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 41,20</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>03/02/2024 02:57:01</t>
+          <t>03/02/2024 02:57:05</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1426,19 +1426,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 45,70</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 41,00</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>03/02/2024 02:57:09</t>
+          <t>03/02/2024 02:57:11</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1448,19 +1448,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>03/02/2024 02:57:19</t>
+          <t>03/02/2024 02:57:15</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1470,19 +1470,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 45,60</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 41,00</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>03/02/2024 02:57:29</t>
+          <t>03/02/2024 02:57:25</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1492,19 +1492,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 45,60</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 40,90</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>03/02/2024 02:57:31</t>
+          <t>03/02/2024 02:57:35</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 45,50</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 40,90</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>03/02/2024 02:57:39</t>
+          <t>03/02/2024 02:57:41</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1536,19 +1536,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>03/02/2024 02:57:59</t>
+          <t>03/02/2024 02:57:45</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1558,19 +1558,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 45,30</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 40,80</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>03/02/2024 02:58:01</t>
+          <t>03/02/2024 02:57:55</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1580,19 +1580,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 45,30</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 40,80</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>03/02/2024 02:58:09</t>
+          <t>03/02/2024 02:58:05</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1602,19 +1602,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 45,20</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 40,70</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>03/02/2024 02:58:19</t>
+          <t>03/02/2024 02:58:11</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1624,19 +1624,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>03/02/2024 02:58:29</t>
+          <t>03/02/2024 02:58:15</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1646,19 +1646,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 45,20</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 40,50</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>03/02/2024 02:58:31</t>
+          <t>03/02/2024 02:58:25</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1668,19 +1668,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 45,10</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 40,50</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>03/02/2024 02:58:39</t>
+          <t>03/02/2024 02:58:35</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1690,19 +1690,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30</t>
+          <t xml:space="preserve"> 45,10</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 40,40</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>03/02/2024 02:58:49</t>
+          <t>03/02/2024 02:58:41</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1712,19 +1712,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>03/02/2024 02:58:59</t>
+          <t>03/02/2024 02:58:45</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1734,19 +1734,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 44,90</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 40,40</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>03/02/2024 02:59:01</t>
+          <t>03/02/2024 02:58:55</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1756,19 +1756,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 44,90</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 40,30</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>03/02/2024 02:59:09</t>
+          <t>03/02/2024 02:59:05</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1778,19 +1778,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 44,80</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 40,30</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>03/02/2024 02:59:19</t>
+          <t>03/02/2024 02:59:11</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1800,19 +1800,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>03/02/2024 02:59:29</t>
+          <t>03/02/2024 02:59:15</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 44,80</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 40,30</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>03/02/2024 02:59:31</t>
+          <t>03/02/2024 02:59:25</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1844,19 +1844,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 44,70</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 40,20</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>03/02/2024 02:59:39</t>
+          <t>03/02/2024 02:59:35</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1866,19 +1866,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 44,70</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 40,20</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>03/02/2024 02:59:49</t>
+          <t>03/02/2024 02:59:41</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1888,19 +1888,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>03/02/2024 02:59:59</t>
+          <t>03/02/2024 02:59:45</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1910,19 +1910,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 44,70</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 40,20</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>03/02/2024 03:00:01</t>
+          <t>03/02/2024 02:59:55</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1932,19 +1932,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,003</t>
+          <t xml:space="preserve"> 44,60</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 40,00</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>03/02/2024 03:00:09</t>
+          <t>03/02/2024 03:00:05</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1954,19 +1954,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 44,40</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 40,00</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>03/02/2024 03:00:19</t>
+          <t>03/02/2024 03:00:11</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1976,19 +1976,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 52,003</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>03/02/2024 03:00:29</t>
+          <t>03/02/2024 03:00:15</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1998,19 +1998,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 44,40</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 39,90</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>03/02/2024 03:00:31</t>
+          <t>03/02/2024 03:00:25</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2020,19 +2020,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 44,30</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 39,80</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>03/02/2024 03:00:39</t>
+          <t>03/02/2024 03:00:35</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2042,19 +2042,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 44,30</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 39,80</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>03/02/2024 03:00:49</t>
+          <t>03/02/2024 03:00:41</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2064,19 +2064,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>03/02/2024 03:00:59</t>
+          <t>03/02/2024 03:00:45</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2086,19 +2086,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 44,20</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 39,80</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>03/02/2024 03:01:01</t>
+          <t>03/02/2024 03:00:55</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2108,19 +2108,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 44,20</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 39,70</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>03/02/2024 03:01:09</t>
+          <t>03/02/2024 03:01:05</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,10</t>
+          <t xml:space="preserve"> 44,10</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 39,70</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>03/02/2024 03:01:19</t>
+          <t>03/02/2024 03:01:11</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2152,19 +2152,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>03/02/2024 03:01:29</t>
+          <t>03/02/2024 03:01:15</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2174,19 +2174,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,10</t>
+          <t xml:space="preserve"> 44,10</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 39,50</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>03/02/2024 03:01:31</t>
+          <t>03/02/2024 03:01:25</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2196,19 +2196,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,003</t>
+          <t xml:space="preserve"> 44,10</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 39,50</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>03/02/2024 03:01:39</t>
+          <t>03/02/2024 03:01:35</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2218,19 +2218,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 43,90</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 39,50</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>03/02/2024 03:01:49</t>
+          <t>03/02/2024 03:01:41</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2240,19 +2240,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 52,003</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>03/02/2024 03:01:59</t>
+          <t>03/02/2024 03:01:45</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2262,19 +2262,19 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 43,90</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 39,40</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>03/02/2024 03:02:01</t>
+          <t>03/02/2024 03:01:55</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2284,19 +2284,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 43,80</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 39,40</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>03/02/2024 03:02:09</t>
+          <t>03/02/2024 03:02:05</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2306,19 +2306,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 43,80</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,50</t>
+          <t xml:space="preserve"> 39,30</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>03/02/2024 03:02:19</t>
+          <t>03/02/2024 03:02:11</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2328,19 +2328,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,10</t>
+          <t xml:space="preserve"> 52,003</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,50</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>03/02/2024 03:02:29</t>
+          <t>03/02/2024 03:02:15</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2350,19 +2350,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 43,70</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,50</t>
+          <t xml:space="preserve"> 39,30</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>03/02/2024 03:02:31</t>
+          <t>03/02/2024 03:02:25</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2372,19 +2372,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,003</t>
+          <t xml:space="preserve"> 43,70</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 39,20</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>03/02/2024 03:02:39</t>
+          <t>03/02/2024 03:02:35</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2394,19 +2394,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,10</t>
+          <t xml:space="preserve"> 43,60</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,50</t>
+          <t xml:space="preserve"> 39,20</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>03/02/2024 03:02:49</t>
+          <t>03/02/2024 03:02:41</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2416,19 +2416,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,50</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>03/02/2024 03:02:59</t>
+          <t>03/02/2024 03:02:45</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,10</t>
+          <t xml:space="preserve"> 43,60</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,50</t>
+          <t xml:space="preserve"> 39,00</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>03/02/2024 03:03:01</t>
+          <t>03/02/2024 03:02:55</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2460,19 +2460,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,003</t>
+          <t xml:space="preserve"> 43,60</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 39,00</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>03/02/2024 03:03:09</t>
+          <t>03/02/2024 03:03:05</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2482,19 +2482,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,10</t>
+          <t xml:space="preserve"> 43,40</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,50</t>
+          <t xml:space="preserve"> 39,00</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>03/02/2024 03:03:19</t>
+          <t>03/02/2024 03:03:11</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2504,19 +2504,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,10</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,50</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>03/02/2024 03:03:29</t>
+          <t>03/02/2024 03:03:15</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2526,19 +2526,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,10</t>
+          <t xml:space="preserve"> 43,30</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 38,90</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>03/02/2024 03:03:31</t>
+          <t>03/02/2024 03:03:25</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2548,19 +2548,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 43,30</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 38,80</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>03/02/2024 03:03:39</t>
+          <t>03/02/2024 03:03:35</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2570,19 +2570,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,10</t>
+          <t xml:space="preserve"> 43,20</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,50</t>
+          <t xml:space="preserve"> 38,80</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>03/02/2024 03:03:49</t>
+          <t>03/02/2024 03:03:41</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2592,19 +2592,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,10</t>
+          <t xml:space="preserve"> 52,003</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>03/02/2024 03:03:59</t>
+          <t>03/02/2024 03:03:45</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2614,19 +2614,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,10</t>
+          <t xml:space="preserve"> 43,20</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,50</t>
+          <t xml:space="preserve"> 38,80</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>03/02/2024 03:04:01</t>
+          <t>03/02/2024 03:03:55</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2636,19 +2636,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 43,20</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 38,60</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>03/02/2024 03:04:09</t>
+          <t>03/02/2024 03:04:05</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2658,19 +2658,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 43,10</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,60</t>
+          <t xml:space="preserve"> 38,50</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>03/02/2024 03:04:19</t>
+          <t>03/02/2024 03:04:11</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2680,19 +2680,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,10</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,50</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>03/02/2024 03:04:29</t>
+          <t>03/02/2024 03:04:15</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2702,19 +2702,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,20</t>
+          <t xml:space="preserve"> 43,10</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,50</t>
+          <t xml:space="preserve"> 38,60</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>03/02/2024 03:04:31</t>
+          <t>03/02/2024 03:04:25</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2724,19 +2724,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 43,10</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 38,50</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>03/02/2024 03:04:39</t>
+          <t>03/02/2024 03:04:35</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,10</t>
+          <t xml:space="preserve"> 42,90</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,50</t>
+          <t xml:space="preserve"> 38,50</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>03/02/2024 03:04:49</t>
+          <t>03/02/2024 03:04:41</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2768,17 +2768,39 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,10</t>
+          <t xml:space="preserve"> 52,003</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,50</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr"/>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>03/02/2024 03:04:45</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 42,90</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 38,40</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2791,7 +2813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2824,7 +2846,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03/02/2024 02:51:35</t>
+          <t>03/02/2024 02:51:37</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2834,19 +2856,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 48,00</t>
+          <t xml:space="preserve"> 28,80</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,80</t>
+          <t xml:space="preserve"> 33,00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03/02/2024 02:51:41</t>
+          <t>03/02/2024 02:51:47</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2856,19 +2878,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,258</t>
+          <t xml:space="preserve"> 28,80</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 33,00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03/02/2024 02:51:45</t>
+          <t>03/02/2024 02:51:51</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2878,19 +2900,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 48,00</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,70</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03/02/2024 02:51:55</t>
+          <t>03/02/2024 02:51:57</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2900,19 +2922,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47,80</t>
+          <t xml:space="preserve"> 28,80</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,60</t>
+          <t xml:space="preserve"> 33,00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03/02/2024 02:52:05</t>
+          <t>03/02/2024 02:52:07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2922,19 +2944,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47,70</t>
+          <t xml:space="preserve"> 28,80</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,60</t>
+          <t xml:space="preserve"> 33,00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03/02/2024 02:52:11</t>
+          <t>03/02/2024 02:52:17</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2944,19 +2966,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 28,80</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 33,00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>03/02/2024 02:52:15</t>
+          <t>03/02/2024 02:52:21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2966,19 +2988,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47,70</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,40</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03/02/2024 02:52:25</t>
+          <t>03/02/2024 02:52:27</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2988,19 +3010,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47,60</t>
+          <t xml:space="preserve"> 28,80</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,30</t>
+          <t xml:space="preserve"> 33,00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03/02/2024 02:52:35</t>
+          <t>03/02/2024 02:52:37</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3010,19 +3032,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47,60</t>
+          <t xml:space="preserve"> 28,80</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,20</t>
+          <t xml:space="preserve"> 33,00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03/02/2024 02:52:41</t>
+          <t>03/02/2024 02:52:47</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3032,19 +3054,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 28,80</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 33,00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03/02/2024 02:52:45</t>
+          <t>03/02/2024 02:52:51</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3054,19 +3076,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47,50</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,10</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03/02/2024 02:52:55</t>
+          <t>03/02/2024 02:52:57</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3076,19 +3098,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47,50</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42,90</t>
+          <t xml:space="preserve"> 32,90</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03/02/2024 02:53:05</t>
+          <t>03/02/2024 02:53:07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3098,19 +3120,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47,30</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42,90</t>
+          <t xml:space="preserve"> 32,90</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03/02/2024 02:53:11</t>
+          <t>03/02/2024 02:53:17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3120,19 +3142,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 32,90</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>03/02/2024 02:53:15</t>
+          <t>03/02/2024 02:53:21</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3142,19 +3164,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47,20</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42,80</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>03/02/2024 02:53:25</t>
+          <t>03/02/2024 02:53:27</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3164,19 +3186,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47,10</t>
+          <t xml:space="preserve"> 28,80</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42,80</t>
+          <t xml:space="preserve"> 32,90</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>03/02/2024 02:53:35</t>
+          <t>03/02/2024 02:53:37</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3186,19 +3208,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47,10</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42,70</t>
+          <t xml:space="preserve"> 32,90</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>03/02/2024 02:53:41</t>
+          <t>03/02/2024 02:53:47</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3208,19 +3230,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 32,90</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>03/02/2024 02:53:45</t>
+          <t>03/02/2024 02:53:51</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3230,19 +3252,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47,00</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42,70</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>03/02/2024 02:53:55</t>
+          <t>03/02/2024 02:53:57</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3252,19 +3274,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47,00</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42,40</t>
+          <t xml:space="preserve"> 32,70</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>03/02/2024 02:54:05</t>
+          <t>03/02/2024 02:54:07</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3274,19 +3296,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46,80</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42,40</t>
+          <t xml:space="preserve"> 32,90</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03/02/2024 02:54:11</t>
+          <t>03/02/2024 02:54:17</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3296,19 +3318,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 32,70</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>03/02/2024 02:54:15</t>
+          <t>03/02/2024 02:54:21</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3318,19 +3340,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46,70</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42,30</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>03/02/2024 02:54:25</t>
+          <t>03/02/2024 02:54:27</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3340,19 +3362,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46,70</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42,30</t>
+          <t xml:space="preserve"> 32,70</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>03/02/2024 02:54:35</t>
+          <t>03/02/2024 02:54:37</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3362,19 +3384,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46,60</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42,20</t>
+          <t xml:space="preserve"> 32,70</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>03/02/2024 02:54:41</t>
+          <t>03/02/2024 02:54:47</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3384,19 +3406,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 32,70</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>03/02/2024 02:54:45</t>
+          <t>03/02/2024 02:54:51</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3406,19 +3428,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46,60</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42,20</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>03/02/2024 02:54:55</t>
+          <t>03/02/2024 02:54:57</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3428,19 +3450,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46,50</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42,20</t>
+          <t xml:space="preserve"> 32,70</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>03/02/2024 02:55:05</t>
+          <t>03/02/2024 02:55:07</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3450,19 +3472,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46,50</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42,10</t>
+          <t xml:space="preserve"> 32,70</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>03/02/2024 02:55:11</t>
+          <t>03/02/2024 02:55:17</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3472,19 +3494,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 32,60</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>03/02/2024 02:55:15</t>
+          <t>03/02/2024 02:55:21</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3494,19 +3516,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46,30</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41,90</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>03/02/2024 02:55:25</t>
+          <t>03/02/2024 02:55:27</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3516,19 +3538,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46,30</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41,80</t>
+          <t xml:space="preserve"> 32,60</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>03/02/2024 02:55:35</t>
+          <t>03/02/2024 02:55:37</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3538,19 +3560,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46,20</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41,80</t>
+          <t xml:space="preserve"> 32,60</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>03/02/2024 02:55:41</t>
+          <t>03/02/2024 02:55:47</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3560,19 +3582,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 32,60</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>03/02/2024 02:55:45</t>
+          <t>03/02/2024 02:55:51</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3582,19 +3604,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46,20</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41,70</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>03/02/2024 02:55:55</t>
+          <t>03/02/2024 02:55:57</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3604,19 +3626,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46,10</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41,50</t>
+          <t xml:space="preserve"> 32,70</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>03/02/2024 02:56:05</t>
+          <t>03/02/2024 02:56:07</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3626,19 +3648,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46,10</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41,50</t>
+          <t xml:space="preserve"> 32,60</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>03/02/2024 02:56:11</t>
+          <t>03/02/2024 02:56:17</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3648,19 +3670,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 32,60</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>03/02/2024 02:56:15</t>
+          <t>03/02/2024 02:56:21</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3670,19 +3692,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46,10</t>
+          <t xml:space="preserve"> 52,258</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41,40</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>03/02/2024 02:56:25</t>
+          <t>03/02/2024 02:56:27</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3692,19 +3714,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45,80</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41,40</t>
+          <t xml:space="preserve"> 32,50</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>03/02/2024 02:56:35</t>
+          <t>03/02/2024 02:56:37</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3714,19 +3736,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45,80</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41,40</t>
+          <t xml:space="preserve"> 32,60</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>03/02/2024 02:56:41</t>
+          <t>03/02/2024 02:56:47</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3736,19 +3758,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 32,50</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>03/02/2024 02:56:45</t>
+          <t>03/02/2024 02:56:51</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3758,19 +3780,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45,70</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41,20</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>03/02/2024 02:56:55</t>
+          <t>03/02/2024 02:56:57</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3780,19 +3802,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45,70</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41,20</t>
+          <t xml:space="preserve"> 32,50</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>03/02/2024 02:57:05</t>
+          <t>03/02/2024 02:57:07</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3802,19 +3824,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45,70</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41,00</t>
+          <t xml:space="preserve"> 32,50</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>03/02/2024 02:57:11</t>
+          <t>03/02/2024 02:57:17</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3824,19 +3846,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 32,50</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>03/02/2024 02:57:15</t>
+          <t>03/02/2024 02:57:21</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3846,19 +3868,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45,60</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41,00</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>03/02/2024 02:57:25</t>
+          <t>03/02/2024 02:57:27</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3868,19 +3890,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45,60</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40,90</t>
+          <t xml:space="preserve"> 32,50</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>03/02/2024 02:57:35</t>
+          <t>03/02/2024 02:57:37</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3890,19 +3912,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45,50</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40,90</t>
+          <t xml:space="preserve"> 32,50</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>03/02/2024 02:57:41</t>
+          <t>03/02/2024 02:57:47</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3912,19 +3934,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 32,30</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>03/02/2024 02:57:45</t>
+          <t>03/02/2024 02:57:51</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3934,19 +3956,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45,30</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40,80</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>03/02/2024 02:57:55</t>
+          <t>03/02/2024 02:57:57</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3956,19 +3978,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45,30</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40,80</t>
+          <t xml:space="preserve"> 32,50</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>03/02/2024 02:58:05</t>
+          <t>03/02/2024 02:58:07</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3978,19 +4000,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45,20</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40,70</t>
+          <t xml:space="preserve"> 32,50</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>03/02/2024 02:58:11</t>
+          <t>03/02/2024 02:58:17</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4000,19 +4022,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 32,30</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>03/02/2024 02:58:15</t>
+          <t>03/02/2024 02:58:21</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4022,19 +4044,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45,20</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40,50</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>03/02/2024 02:58:25</t>
+          <t>03/02/2024 02:58:27</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4044,19 +4066,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45,10</t>
+          <t xml:space="preserve"> 28,90</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40,50</t>
+          <t xml:space="preserve"> 32,30</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>03/02/2024 02:58:35</t>
+          <t>03/02/2024 02:58:37</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4066,19 +4088,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45,10</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40,40</t>
+          <t xml:space="preserve"> 32,30</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>03/02/2024 02:58:41</t>
+          <t>03/02/2024 02:58:47</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4088,19 +4110,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 32,30</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>03/02/2024 02:58:45</t>
+          <t>03/02/2024 02:58:51</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4110,19 +4132,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44,90</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40,40</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>03/02/2024 02:58:55</t>
+          <t>03/02/2024 02:58:57</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4132,19 +4154,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44,90</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40,30</t>
+          <t xml:space="preserve"> 32,30</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>03/02/2024 02:59:05</t>
+          <t>03/02/2024 02:59:07</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4154,19 +4176,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44,80</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40,30</t>
+          <t xml:space="preserve"> 32,30</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>03/02/2024 02:59:11</t>
+          <t>03/02/2024 02:59:17</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4176,19 +4198,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 32,30</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>03/02/2024 02:59:15</t>
+          <t>03/02/2024 02:59:21</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4198,19 +4220,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44,80</t>
+          <t xml:space="preserve"> 52,003</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40,30</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>03/02/2024 02:59:25</t>
+          <t>03/02/2024 02:59:27</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4220,19 +4242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44,70</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40,20</t>
+          <t xml:space="preserve"> 32,20</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>03/02/2024 02:59:35</t>
+          <t>03/02/2024 02:59:37</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4242,19 +4264,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44,70</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40,20</t>
+          <t xml:space="preserve"> 32,20</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>03/02/2024 02:59:41</t>
+          <t>03/02/2024 02:59:47</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4264,19 +4286,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 32,20</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>03/02/2024 02:59:45</t>
+          <t>03/02/2024 02:59:51</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4286,19 +4308,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44,70</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40,20</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>03/02/2024 02:59:55</t>
+          <t>03/02/2024 02:59:57</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4308,19 +4330,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44,60</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40,00</t>
+          <t xml:space="preserve"> 32,20</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>03/02/2024 03:00:05</t>
+          <t>03/02/2024 03:00:07</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4330,19 +4352,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44,40</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40,00</t>
+          <t xml:space="preserve"> 32,20</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>03/02/2024 03:00:11</t>
+          <t>03/02/2024 03:00:17</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4352,19 +4374,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,003</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 32,20</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>03/02/2024 03:00:15</t>
+          <t>03/02/2024 03:00:21</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4374,19 +4396,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44,40</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39,90</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>03/02/2024 03:00:25</t>
+          <t>03/02/2024 03:00:27</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4396,19 +4418,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44,30</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39,80</t>
+          <t xml:space="preserve"> 32,20</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>03/02/2024 03:00:35</t>
+          <t>03/02/2024 03:00:37</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4418,19 +4440,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44,30</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39,80</t>
+          <t xml:space="preserve"> 32,20</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>03/02/2024 03:00:41</t>
+          <t>03/02/2024 03:00:47</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4440,19 +4462,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 32,10</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>03/02/2024 03:00:45</t>
+          <t>03/02/2024 03:00:51</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4462,19 +4484,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44,20</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39,80</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>03/02/2024 03:00:55</t>
+          <t>03/02/2024 03:00:57</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4484,19 +4506,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44,20</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39,70</t>
+          <t xml:space="preserve"> 32,20</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>03/02/2024 03:01:05</t>
+          <t>03/02/2024 03:01:07</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4506,19 +4528,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44,10</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39,70</t>
+          <t xml:space="preserve"> 32,20</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>03/02/2024 03:01:11</t>
+          <t>03/02/2024 03:01:17</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4528,19 +4550,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 32,10</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>03/02/2024 03:01:15</t>
+          <t>03/02/2024 03:01:21</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4550,19 +4572,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44,10</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39,50</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>03/02/2024 03:01:25</t>
+          <t>03/02/2024 03:01:27</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4572,19 +4594,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44,10</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39,50</t>
+          <t xml:space="preserve"> 32,10</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>03/02/2024 03:01:35</t>
+          <t>03/02/2024 03:01:37</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4594,19 +4616,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,90</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39,50</t>
+          <t xml:space="preserve"> 32,10</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>03/02/2024 03:01:41</t>
+          <t>03/02/2024 03:01:47</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4616,19 +4638,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,003</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 32,10</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>03/02/2024 03:01:45</t>
+          <t>03/02/2024 03:01:51</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4638,19 +4660,19 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,90</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39,40</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>03/02/2024 03:01:55</t>
+          <t>03/02/2024 03:01:57</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4660,19 +4682,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,80</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39,40</t>
+          <t xml:space="preserve"> 32,10</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>03/02/2024 03:02:05</t>
+          <t>03/02/2024 03:02:07</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4682,19 +4704,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,80</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39,30</t>
+          <t xml:space="preserve"> 32,10</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>03/02/2024 03:02:11</t>
+          <t>03/02/2024 03:02:17</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4704,19 +4726,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,003</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 32,10</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>03/02/2024 03:02:15</t>
+          <t>03/02/2024 03:02:21</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4726,19 +4748,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,70</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39,30</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>03/02/2024 03:02:25</t>
+          <t>03/02/2024 03:02:27</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4748,19 +4770,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,70</t>
+          <t xml:space="preserve"> 29,20</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39,20</t>
+          <t xml:space="preserve"> 32,00</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>03/02/2024 03:02:35</t>
+          <t>03/02/2024 03:02:37</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4770,19 +4792,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,60</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39,20</t>
+          <t xml:space="preserve"> 32,00</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>03/02/2024 03:02:41</t>
+          <t>03/02/2024 03:02:47</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4792,19 +4814,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 32,00</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>03/02/2024 03:02:45</t>
+          <t>03/02/2024 03:02:51</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4814,19 +4836,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,60</t>
+          <t xml:space="preserve"> 52,003</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39,00</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>03/02/2024 03:02:55</t>
+          <t>03/02/2024 03:02:57</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4836,19 +4858,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,60</t>
+          <t xml:space="preserve"> 29,20</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39,00</t>
+          <t xml:space="preserve"> 32,10</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>03/02/2024 03:03:05</t>
+          <t>03/02/2024 03:03:07</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4858,19 +4880,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,40</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39,00</t>
+          <t xml:space="preserve"> 32,10</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>03/02/2024 03:03:11</t>
+          <t>03/02/2024 03:03:17</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4880,19 +4902,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 29,20</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 32,00</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>03/02/2024 03:03:15</t>
+          <t>03/02/2024 03:03:21</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4902,19 +4924,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,30</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 38,90</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>03/02/2024 03:03:25</t>
+          <t>03/02/2024 03:03:27</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4924,19 +4946,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,30</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 38,80</t>
+          <t xml:space="preserve"> 32,00</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>03/02/2024 03:03:35</t>
+          <t>03/02/2024 03:03:37</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4946,19 +4968,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,20</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 38,80</t>
+          <t xml:space="preserve"> 32,00</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>03/02/2024 03:03:41</t>
+          <t>03/02/2024 03:03:47</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4968,19 +4990,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,003</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 32,00</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>03/02/2024 03:03:45</t>
+          <t>03/02/2024 03:03:51</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4990,19 +5012,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,20</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 38,80</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>03/02/2024 03:03:55</t>
+          <t>03/02/2024 03:03:57</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5012,19 +5034,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,20</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 38,60</t>
+          <t xml:space="preserve"> 32,00</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>03/02/2024 03:04:05</t>
+          <t>03/02/2024 03:04:07</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5034,19 +5056,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,10</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 38,50</t>
+          <t xml:space="preserve"> 32,00</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>03/02/2024 03:04:11</t>
+          <t>03/02/2024 03:04:17</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5056,19 +5078,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 32,00</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>03/02/2024 03:04:15</t>
+          <t>03/02/2024 03:04:21</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5078,19 +5100,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,10</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 38,60</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>03/02/2024 03:04:25</t>
+          <t>03/02/2024 03:04:27</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5100,19 +5122,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43,10</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 38,50</t>
+          <t xml:space="preserve"> 31,80</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>03/02/2024 03:04:35</t>
+          <t>03/02/2024 03:04:37</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5122,19 +5144,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42,90</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 38,50</t>
+          <t xml:space="preserve"> 31,80</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>03/02/2024 03:04:41</t>
+          <t>03/02/2024 03:04:47</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5144,39 +5166,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,003</t>
+          <t xml:space="preserve"> 29,10</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 31,80</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>03/02/2024 03:04:45</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 20</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 42,90</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 38,40</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr"/>
+      <c r="A108" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5222,7 +5222,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03/02/2024 02:51:37</t>
+          <t>03/02/2024 02:51:31</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5232,19 +5232,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,80</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33,00</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03/02/2024 02:51:47</t>
+          <t>03/02/2024 02:51:39</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -5254,19 +5254,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,80</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33,00</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03/02/2024 02:51:51</t>
+          <t>03/02/2024 02:51:49</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5276,19 +5276,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 29,70</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03/02/2024 02:51:57</t>
+          <t>03/02/2024 02:51:59</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5298,19 +5298,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,80</t>
+          <t xml:space="preserve"> 30,50</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33,00</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03/02/2024 02:52:07</t>
+          <t>03/02/2024 02:52:01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5320,19 +5320,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,80</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33,00</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03/02/2024 02:52:17</t>
+          <t>03/02/2024 02:52:09</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -5342,19 +5342,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,80</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33,00</t>
+          <t xml:space="preserve"> 29,70</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>03/02/2024 02:52:21</t>
+          <t>03/02/2024 02:52:19</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5364,19 +5364,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 29,70</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03/02/2024 02:52:27</t>
+          <t>03/02/2024 02:52:29</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5386,19 +5386,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,80</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33,00</t>
+          <t xml:space="preserve"> 29,70</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03/02/2024 02:52:37</t>
+          <t>03/02/2024 02:52:31</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5408,19 +5408,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,80</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33,00</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03/02/2024 02:52:47</t>
+          <t>03/02/2024 02:52:39</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -5430,19 +5430,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,80</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33,00</t>
+          <t xml:space="preserve"> 29,70</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03/02/2024 02:52:51</t>
+          <t>03/02/2024 02:52:49</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -5452,19 +5452,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 29,70</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03/02/2024 02:52:57</t>
+          <t>03/02/2024 02:52:59</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -5474,19 +5474,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,90</t>
+          <t xml:space="preserve"> 29,70</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03/02/2024 02:53:07</t>
+          <t>03/02/2024 02:53:01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -5496,19 +5496,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,90</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03/02/2024 02:53:17</t>
+          <t>03/02/2024 02:53:09</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,90</t>
+          <t xml:space="preserve"> 29,70</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>03/02/2024 02:53:21</t>
+          <t>03/02/2024 02:53:19</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -5540,19 +5540,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 29,70</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>03/02/2024 02:53:27</t>
+          <t>03/02/2024 02:53:29</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -5562,19 +5562,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,80</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,90</t>
+          <t xml:space="preserve"> 29,70</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>03/02/2024 02:53:37</t>
+          <t>03/02/2024 02:53:31</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -5584,19 +5584,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,90</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>03/02/2024 02:53:47</t>
+          <t>03/02/2024 02:53:39</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -5606,19 +5606,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,90</t>
+          <t xml:space="preserve"> 29,70</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>03/02/2024 02:53:51</t>
+          <t>03/02/2024 02:53:49</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -5628,19 +5628,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>03/02/2024 02:53:57</t>
+          <t>03/02/2024 02:53:59</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -5650,19 +5650,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,70</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>03/02/2024 02:54:07</t>
+          <t>03/02/2024 02:54:01</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -5672,19 +5672,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 52,258</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,90</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03/02/2024 02:54:17</t>
+          <t>03/02/2024 02:54:09</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -5694,19 +5694,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,70</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>03/02/2024 02:54:21</t>
+          <t>03/02/2024 02:54:19</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5716,19 +5716,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>03/02/2024 02:54:27</t>
+          <t>03/02/2024 02:54:29</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5738,19 +5738,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,70</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>03/02/2024 02:54:37</t>
+          <t>03/02/2024 02:54:31</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5760,19 +5760,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,70</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>03/02/2024 02:54:47</t>
+          <t>03/02/2024 02:54:39</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5782,19 +5782,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,70</t>
+          <t xml:space="preserve"> 29,70</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>03/02/2024 02:54:51</t>
+          <t>03/02/2024 02:54:49</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5804,19 +5804,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>03/02/2024 02:54:57</t>
+          <t>03/02/2024 02:54:59</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,70</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>03/02/2024 02:55:07</t>
+          <t>03/02/2024 02:55:01</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5848,19 +5848,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,70</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>03/02/2024 02:55:17</t>
+          <t>03/02/2024 02:55:09</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -5870,19 +5870,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,60</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>03/02/2024 02:55:21</t>
+          <t>03/02/2024 02:55:19</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -5892,19 +5892,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>03/02/2024 02:55:27</t>
+          <t>03/02/2024 02:55:29</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5914,19 +5914,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,60</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>03/02/2024 02:55:37</t>
+          <t>03/02/2024 02:55:31</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5936,19 +5936,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,60</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>03/02/2024 02:55:47</t>
+          <t>03/02/2024 02:55:39</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5958,19 +5958,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,60</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>03/02/2024 02:55:51</t>
+          <t>03/02/2024 02:55:49</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5980,19 +5980,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>03/02/2024 02:55:57</t>
+          <t>03/02/2024 02:55:59</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -6002,19 +6002,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,70</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>03/02/2024 02:56:07</t>
+          <t>03/02/2024 02:56:01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -6024,19 +6024,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 52,258</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,60</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>03/02/2024 02:56:17</t>
+          <t>03/02/2024 02:56:09</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -6046,19 +6046,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,60</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>03/02/2024 02:56:21</t>
+          <t>03/02/2024 02:56:19</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -6068,19 +6068,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,258</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>03/02/2024 02:56:27</t>
+          <t>03/02/2024 02:56:29</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -6090,19 +6090,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,50</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>03/02/2024 02:56:37</t>
+          <t>03/02/2024 02:56:31</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6112,19 +6112,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,60</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>03/02/2024 02:56:47</t>
+          <t>03/02/2024 02:56:39</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,50</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>03/02/2024 02:56:51</t>
+          <t>03/02/2024 02:56:49</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6156,19 +6156,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>03/02/2024 02:56:57</t>
+          <t>03/02/2024 02:56:59</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6178,19 +6178,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,50</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>03/02/2024 02:57:07</t>
+          <t>03/02/2024 02:57:01</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6200,19 +6200,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,50</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>03/02/2024 02:57:17</t>
+          <t>03/02/2024 02:57:09</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6222,19 +6222,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,50</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>03/02/2024 02:57:21</t>
+          <t>03/02/2024 02:57:19</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6244,19 +6244,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>03/02/2024 02:57:27</t>
+          <t>03/02/2024 02:57:29</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6266,19 +6266,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,50</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>03/02/2024 02:57:37</t>
+          <t>03/02/2024 02:57:31</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -6288,19 +6288,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,50</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>03/02/2024 02:57:47</t>
+          <t>03/02/2024 02:57:39</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -6310,19 +6310,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,30</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>03/02/2024 02:57:51</t>
+          <t>03/02/2024 02:57:59</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -6332,19 +6332,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>03/02/2024 02:57:57</t>
+          <t>03/02/2024 02:58:01</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6354,19 +6354,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,50</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>03/02/2024 02:58:07</t>
+          <t>03/02/2024 02:58:09</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6376,19 +6376,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,50</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>03/02/2024 02:58:17</t>
+          <t>03/02/2024 02:58:19</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6398,19 +6398,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,30</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>03/02/2024 02:58:21</t>
+          <t>03/02/2024 02:58:29</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6420,19 +6420,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>03/02/2024 02:58:27</t>
+          <t>03/02/2024 02:58:31</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -6442,19 +6442,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,90</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,30</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>03/02/2024 02:58:37</t>
+          <t>03/02/2024 02:58:39</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -6464,19 +6464,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,30</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,30</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>03/02/2024 02:58:47</t>
+          <t>03/02/2024 02:58:49</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6486,19 +6486,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,30</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>03/02/2024 02:58:51</t>
+          <t>03/02/2024 02:58:59</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6508,19 +6508,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>03/02/2024 02:58:57</t>
+          <t>03/02/2024 02:59:01</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6530,19 +6530,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,30</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>03/02/2024 02:59:07</t>
+          <t>03/02/2024 02:59:09</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6552,19 +6552,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,30</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>03/02/2024 02:59:17</t>
+          <t>03/02/2024 02:59:19</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6574,19 +6574,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,30</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>03/02/2024 02:59:21</t>
+          <t>03/02/2024 02:59:29</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -6596,19 +6596,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,003</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>03/02/2024 02:59:27</t>
+          <t>03/02/2024 02:59:31</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -6618,19 +6618,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,20</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>03/02/2024 02:59:37</t>
+          <t>03/02/2024 02:59:39</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -6640,19 +6640,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,20</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>03/02/2024 02:59:47</t>
+          <t>03/02/2024 02:59:49</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6662,19 +6662,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,20</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>03/02/2024 02:59:51</t>
+          <t>03/02/2024 02:59:59</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -6684,19 +6684,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>03/02/2024 02:59:57</t>
+          <t>03/02/2024 03:00:01</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -6706,19 +6706,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 52,003</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,20</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>03/02/2024 03:00:07</t>
+          <t>03/02/2024 03:00:09</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -6728,19 +6728,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,20</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>03/02/2024 03:00:17</t>
+          <t>03/02/2024 03:00:19</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -6750,19 +6750,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,20</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>03/02/2024 03:00:21</t>
+          <t>03/02/2024 03:00:29</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -6772,19 +6772,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>03/02/2024 03:00:27</t>
+          <t>03/02/2024 03:00:31</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -6794,19 +6794,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,20</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>03/02/2024 03:00:37</t>
+          <t>03/02/2024 03:00:39</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -6816,19 +6816,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,20</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>03/02/2024 03:00:47</t>
+          <t>03/02/2024 03:00:49</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -6838,19 +6838,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,10</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>03/02/2024 03:00:51</t>
+          <t>03/02/2024 03:00:59</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -6860,19 +6860,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>03/02/2024 03:00:57</t>
+          <t>03/02/2024 03:01:01</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -6882,19 +6882,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,20</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>03/02/2024 03:01:07</t>
+          <t>03/02/2024 03:01:09</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -6904,19 +6904,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,10</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,20</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>03/02/2024 03:01:17</t>
+          <t>03/02/2024 03:01:19</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -6926,19 +6926,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,10</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>03/02/2024 03:01:21</t>
+          <t>03/02/2024 03:01:29</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6948,19 +6948,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 30,10</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>03/02/2024 03:01:27</t>
+          <t>03/02/2024 03:01:31</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6970,19 +6970,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 52,003</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,10</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>03/02/2024 03:01:37</t>
+          <t>03/02/2024 03:01:39</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6992,19 +6992,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,10</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>03/02/2024 03:01:47</t>
+          <t>03/02/2024 03:01:49</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -7014,19 +7014,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,10</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>03/02/2024 03:01:51</t>
+          <t>03/02/2024 03:01:59</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -7036,19 +7036,19 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>03/02/2024 03:01:57</t>
+          <t>03/02/2024 03:02:01</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -7058,19 +7058,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,10</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>03/02/2024 03:02:07</t>
+          <t>03/02/2024 03:02:09</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -7080,19 +7080,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,10</t>
+          <t xml:space="preserve"> 29,50</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>03/02/2024 03:02:17</t>
+          <t>03/02/2024 03:02:19</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -7102,19 +7102,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,10</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,10</t>
+          <t xml:space="preserve"> 29,50</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>03/02/2024 03:02:21</t>
+          <t>03/02/2024 03:02:29</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -7124,19 +7124,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 29,50</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>03/02/2024 03:02:27</t>
+          <t>03/02/2024 03:02:31</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -7146,19 +7146,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,20</t>
+          <t xml:space="preserve"> 52,003</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,00</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>03/02/2024 03:02:37</t>
+          <t>03/02/2024 03:02:39</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -7168,19 +7168,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,10</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,00</t>
+          <t xml:space="preserve"> 29,50</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>03/02/2024 03:02:47</t>
+          <t>03/02/2024 03:02:49</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -7190,19 +7190,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,00</t>
+          <t xml:space="preserve"> 29,50</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>03/02/2024 03:02:51</t>
+          <t>03/02/2024 03:02:59</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -7212,19 +7212,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,003</t>
+          <t xml:space="preserve"> 30,10</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 29,50</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>03/02/2024 03:02:57</t>
+          <t>03/02/2024 03:03:01</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -7234,19 +7234,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,20</t>
+          <t xml:space="preserve"> 52,003</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,10</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>03/02/2024 03:03:07</t>
+          <t>03/02/2024 03:03:09</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -7256,19 +7256,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,10</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,10</t>
+          <t xml:space="preserve"> 29,50</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>03/02/2024 03:03:17</t>
+          <t>03/02/2024 03:03:19</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -7278,19 +7278,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,20</t>
+          <t xml:space="preserve"> 30,10</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,00</t>
+          <t xml:space="preserve"> 29,50</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>03/02/2024 03:03:21</t>
+          <t>03/02/2024 03:03:29</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -7300,19 +7300,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 30,10</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>03/02/2024 03:03:27</t>
+          <t>03/02/2024 03:03:31</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -7322,19 +7322,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,00</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>03/02/2024 03:03:37</t>
+          <t>03/02/2024 03:03:39</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -7344,19 +7344,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,10</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,00</t>
+          <t xml:space="preserve"> 29,50</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>03/02/2024 03:03:47</t>
+          <t>03/02/2024 03:03:49</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -7366,19 +7366,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,10</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,00</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>03/02/2024 03:03:51</t>
+          <t>03/02/2024 03:03:59</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -7388,19 +7388,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 30,10</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 29,50</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>03/02/2024 03:03:57</t>
+          <t>03/02/2024 03:04:01</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -7410,19 +7410,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,00</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>03/02/2024 03:04:07</t>
+          <t>03/02/2024 03:04:09</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -7432,19 +7432,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,00</t>
+          <t xml:space="preserve"> 29,60</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>03/02/2024 03:04:17</t>
+          <t>03/02/2024 03:04:19</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -7454,19 +7454,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,10</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,00</t>
+          <t xml:space="preserve"> 29,50</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>03/02/2024 03:04:21</t>
+          <t>03/02/2024 03:04:29</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -7476,19 +7476,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,131</t>
+          <t xml:space="preserve"> 30,20</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -6,964</t>
+          <t xml:space="preserve"> 29,50</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>03/02/2024 03:04:27</t>
+          <t>03/02/2024 03:04:31</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -7498,19 +7498,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 52,131</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31,80</t>
+          <t xml:space="preserve"> -6,964</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>03/02/2024 03:04:37</t>
+          <t>03/02/2024 03:04:39</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -7520,19 +7520,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,10</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31,80</t>
+          <t xml:space="preserve"> 29,50</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>03/02/2024 03:04:47</t>
+          <t>03/02/2024 03:04:49</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -7542,12 +7542,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,10</t>
+          <t xml:space="preserve"> 30,10</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31,80</t>
+          <t xml:space="preserve"> 29,50</t>
         </is>
       </c>
     </row>
